--- a/datenRF4/SFU/i = 24,42 - Abtriebswelle 14 - Geber AV Y1/L2_24,42_14_AVY1.xlsx
+++ b/datenRF4/SFU/i = 24,42 - Abtriebswelle 14 - Geber AV Y1/L2_24,42_14_AVY1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 24^J42 - Abtriebswelle 14 - Geber AV Y1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{B138A303-BDF0-45BF-9A7A-3B36AB7C4E07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0103C50A-292C-4C2B-92F6-7E11F1C0B168}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -402,11 +396,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -587,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -652,9 +646,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -674,6 +665,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,7 +696,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -765,7 +765,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -817,7 +817,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1011,42 +1011,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26:F26"/>
+      <selection pane="bottomRight" activeCell="B30" activeCellId="6" sqref="B8 B15 B16 B21 B22 B29 B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="63.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="1" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.453125" customWidth="1"/>
+    <col min="9" max="9" width="37.7265625" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+    <col min="11" max="11" width="24.1796875" customWidth="1"/>
+    <col min="12" max="12" width="63.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.7265625" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="21">
       <c r="A1" s="65" t="s">
         <v>102</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="S1" s="60"/>
       <c r="T1" s="61"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="1" customFormat="1">
       <c r="A2" s="62" t="s">
         <v>62</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="S2" s="11"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>64</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="43.5">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="36"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1228,7 +1228,7 @@
       <c r="S5" s="16"/>
       <c r="T5" s="19"/>
     </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="29">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15" thickBot="1">
       <c r="A7" s="40">
         <v>6</v>
       </c>
@@ -1314,24 +1314,26 @@
       <c r="S7" s="16"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="45">
         <v>1</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47">
-        <v>1</v>
-      </c>
-      <c r="D8" s="47" t="s">
+      <c r="B8" s="68">
+        <v>3</v>
+      </c>
+      <c r="C8" s="46">
+        <v>1</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="48">
         <v>23355</v>
       </c>
       <c r="H8" s="12"/>
@@ -1348,7 +1350,7 @@
       <c r="S8" s="16"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="58">
       <c r="A9" s="36"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1378,7 +1380,7 @@
       <c r="S9" s="16"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="58">
       <c r="A10" s="36"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1408,7 +1410,7 @@
       <c r="S10" s="16"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="58.5" thickBot="1">
       <c r="A11" s="36"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1438,7 +1440,7 @@
       <c r="S11" s="16"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="43.5">
       <c r="A12" s="33">
         <v>1</v>
       </c>
@@ -1451,7 +1453,7 @@
       <c r="D12" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="57" t="s">
         <v>111</v>
       </c>
       <c r="F12" s="38" t="s">
@@ -1490,11 +1492,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="36">
         <v>5</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="49">
         <v>1</v>
       </c>
       <c r="C13" s="1">
@@ -1506,10 +1508,10 @@
       <c r="E13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="12"/>
       <c r="I13" s="13"/>
       <c r="J13" s="14"/>
@@ -1524,7 +1526,7 @@
       <c r="S13" s="16"/>
       <c r="T13" s="19"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15" thickBot="1">
       <c r="A14" s="40">
         <v>6</v>
       </c>
@@ -1558,24 +1560,26 @@
       <c r="S14" s="16"/>
       <c r="T14" s="19"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="36">
         <v>1</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="69">
+        <v>3</v>
+      </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="53">
         <v>23355</v>
       </c>
       <c r="H15" s="12"/>
@@ -1592,24 +1596,26 @@
       <c r="S15" s="16"/>
       <c r="T15" s="19"/>
     </row>
-    <row r="16" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="29.5" thickBot="1">
       <c r="A16" s="40">
         <v>2</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="70">
+        <v>3</v>
+      </c>
       <c r="C16" s="42">
         <v>2</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="54" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="55">
         <v>14111</v>
       </c>
       <c r="H16" s="12"/>
@@ -1626,7 +1632,7 @@
       <c r="S16" s="16"/>
       <c r="T16" s="19"/>
     </row>
-    <row r="17" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="29.5" thickBot="1">
       <c r="A17" s="36"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1656,7 +1662,7 @@
       <c r="S17" s="16"/>
       <c r="T17" s="19"/>
     </row>
-    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="29">
       <c r="A18" s="33">
         <v>1</v>
       </c>
@@ -1669,7 +1675,7 @@
       <c r="D18" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="57" t="s">
         <v>111</v>
       </c>
       <c r="F18" s="38" t="s">
@@ -1708,11 +1714,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="36">
         <v>5</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="49">
         <v>1</v>
       </c>
       <c r="C19" s="1">
@@ -1724,10 +1730,10 @@
       <c r="E19" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
       <c r="J19" s="14"/>
@@ -1742,7 +1748,7 @@
       <c r="S19" s="16"/>
       <c r="T19" s="19"/>
     </row>
-    <row r="20" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="15" thickBot="1">
       <c r="A20" s="40">
         <v>6</v>
       </c>
@@ -1776,24 +1782,26 @@
       <c r="S20" s="16"/>
       <c r="T20" s="19"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="36">
         <v>1</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="69">
+        <v>3</v>
+      </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="52" t="s">
         <v>73</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="53">
         <v>23355</v>
       </c>
       <c r="H21" s="12"/>
@@ -1810,24 +1818,26 @@
       <c r="S21" s="16"/>
       <c r="T21" s="19"/>
     </row>
-    <row r="22" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="29.5" thickBot="1">
       <c r="A22" s="40">
         <v>2</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="70">
+        <v>3</v>
+      </c>
       <c r="C22" s="42">
         <v>2</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="54" t="s">
         <v>75</v>
       </c>
       <c r="F22" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="55">
         <v>14111</v>
       </c>
       <c r="H22" s="12"/>
@@ -1844,7 +1854,7 @@
       <c r="S22" s="16"/>
       <c r="T22" s="19"/>
     </row>
-    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="29">
       <c r="A23" s="36"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1874,7 +1884,7 @@
       <c r="S23" s="16"/>
       <c r="T23" s="19"/>
     </row>
-    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="29">
       <c r="A24" s="36"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1904,7 +1914,7 @@
       <c r="S24" s="16"/>
       <c r="T24" s="19"/>
     </row>
-    <row r="25" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="29.5" thickBot="1">
       <c r="A25" s="36"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1934,7 +1944,7 @@
       <c r="S25" s="16"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="29">
       <c r="A26" s="33">
         <v>1</v>
       </c>
@@ -1947,7 +1957,7 @@
       <c r="D26" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="57" t="s">
         <v>111</v>
       </c>
       <c r="F26" s="38" t="s">
@@ -1986,11 +1996,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="36">
         <v>5</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="49">
         <v>1</v>
       </c>
       <c r="C27" s="1">
@@ -2002,10 +2012,10 @@
       <c r="E27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
       <c r="J27" s="14"/>
@@ -2020,7 +2030,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="15" thickBot="1">
       <c r="A28" s="40">
         <v>6</v>
       </c>
@@ -2054,24 +2064,26 @@
       <c r="S28" s="16"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="36">
         <v>1</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="69">
+        <v>3</v>
+      </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="52" t="s">
         <v>73</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="54">
+      <c r="G29" s="53">
         <v>23355</v>
       </c>
       <c r="H29" s="12"/>
@@ -2088,24 +2100,26 @@
       <c r="S29" s="16"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="29.5" thickBot="1">
       <c r="A30" s="40">
         <v>2</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="70">
+        <v>3</v>
+      </c>
       <c r="C30" s="42">
         <v>2</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="54" t="s">
         <v>75</v>
       </c>
       <c r="F30" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="55">
         <v>14111</v>
       </c>
       <c r="H30" s="12"/>
@@ -2122,7 +2136,7 @@
       <c r="S30" s="16"/>
       <c r="T30" s="19"/>
     </row>
-    <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="29">
       <c r="A31" s="36"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2152,7 +2166,7 @@
       <c r="S31" s="16"/>
       <c r="T31" s="19"/>
     </row>
-    <row r="32" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="29">
       <c r="A32" s="36"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2182,7 +2196,7 @@
       <c r="S32" s="16"/>
       <c r="T32" s="19"/>
     </row>
-    <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="29">
       <c r="A33" s="36"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2212,7 +2226,7 @@
       <c r="S33" s="16"/>
       <c r="T33" s="19"/>
     </row>
-    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="29">
       <c r="A34" s="36"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2242,7 +2256,7 @@
       <c r="S34" s="16"/>
       <c r="T34" s="19"/>
     </row>
-    <row r="35" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="43.5">
       <c r="A35" s="36"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2272,7 +2286,7 @@
       <c r="S35" s="16"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="29">
       <c r="A36" s="36"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2302,7 +2316,7 @@
       <c r="S36" s="16"/>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="29">
       <c r="A37" s="36"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2332,7 +2346,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="19"/>
     </row>
-    <row r="38" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="29">
       <c r="A38" s="36"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2362,7 +2376,7 @@
       <c r="S38" s="16"/>
       <c r="T38" s="19"/>
     </row>
-    <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="29">
       <c r="A39" s="36"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2392,7 +2406,7 @@
       <c r="S39" s="16"/>
       <c r="T39" s="19"/>
     </row>
-    <row r="40" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="29">
       <c r="A40" s="36"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2422,7 +2436,7 @@
       <c r="S40" s="16"/>
       <c r="T40" s="19"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="36"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2452,7 +2466,7 @@
       <c r="S41" s="16"/>
       <c r="T41" s="19"/>
     </row>
-    <row r="42" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="43.5">
       <c r="A42" s="36"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2482,7 +2496,7 @@
       <c r="S42" s="16"/>
       <c r="T42" s="19"/>
     </row>
-    <row r="43" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="29">
       <c r="A43" s="36"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2512,7 +2526,7 @@
       <c r="S43" s="16"/>
       <c r="T43" s="19"/>
     </row>
-    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="29">
       <c r="A44" s="36"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2542,7 +2556,7 @@
       <c r="S44" s="16"/>
       <c r="T44" s="19"/>
     </row>
-    <row r="45" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="29">
       <c r="A45" s="36"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2572,7 +2586,7 @@
       <c r="S45" s="16"/>
       <c r="T45" s="19"/>
     </row>
-    <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="29">
       <c r="A46" s="36"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2602,7 +2616,7 @@
       <c r="S46" s="16"/>
       <c r="T46" s="19"/>
     </row>
-    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="29">
       <c r="A47" s="36"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2632,7 +2646,7 @@
       <c r="S47" s="16"/>
       <c r="T47" s="19"/>
     </row>
-    <row r="48" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="29">
       <c r="A48" s="36"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2662,7 +2676,7 @@
       <c r="S48" s="16"/>
       <c r="T48" s="19"/>
     </row>
-    <row r="49" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="29">
       <c r="A49" s="36"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2692,14 +2706,14 @@
       <c r="S49" s="16"/>
       <c r="T49" s="19"/>
     </row>
-    <row r="50" spans="1:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="29.5" thickBot="1">
       <c r="A50" s="40"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
       <c r="D50" s="42"/>
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
-      <c r="G50" s="57"/>
+      <c r="G50" s="56"/>
       <c r="H50" s="22">
         <v>100</v>
       </c>
@@ -2730,87 +2744,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
       <c r="Q54" s="29"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
       <c r="Q56" s="29"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="O57" s="29"/>
       <c r="P57" s="29"/>
       <c r="Q57" s="29"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="O58" s="29"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="O59" s="29"/>
       <c r="P59" s="29"/>
       <c r="Q59" s="29"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="O60" s="29"/>
       <c r="P60" s="29"/>
       <c r="Q60" s="29"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="O61" s="29"/>
       <c r="P61" s="29"/>
       <c r="Q61" s="29"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="O62" s="29"/>
       <c r="P62" s="29"/>
       <c r="Q62" s="29"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="O63" s="29"/>
       <c r="P63" s="29"/>
       <c r="Q63" s="29"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="O64" s="29"/>
       <c r="P64" s="29"/>
       <c r="Q64" s="29"/>
     </row>
-    <row r="65" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="15:17">
       <c r="O65" s="29"/>
       <c r="P65" s="29"/>
       <c r="Q65" s="29"/>
     </row>
-    <row r="66" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="15:17">
       <c r="O66" s="29"/>
       <c r="P66" s="29"/>
       <c r="Q66" s="29"/>
     </row>
-    <row r="67" spans="15:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="15:17">
       <c r="O67" s="29"/>
       <c r="P67" s="29"/>
       <c r="Q67" s="29"/>
